--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H2">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I2">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J2">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N2">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O2">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P2">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q2">
-        <v>5.099739820905001</v>
+        <v>6.9770412094565</v>
       </c>
       <c r="R2">
-        <v>30.59843892543001</v>
+        <v>27.908164837826</v>
       </c>
       <c r="S2">
-        <v>0.002118461149705838</v>
+        <v>0.0008710976726184805</v>
       </c>
       <c r="T2">
-        <v>0.001424609142012242</v>
+        <v>0.0003984986632489693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.115595000000001</v>
+        <v>19.4786585</v>
       </c>
       <c r="H3">
-        <v>14.23119</v>
+        <v>38.957317</v>
       </c>
       <c r="I3">
-        <v>0.00930697610393229</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J3">
-        <v>0.006258695489408664</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N3">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O3">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P3">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q3">
-        <v>17.30480446636</v>
+        <v>11.1975600612855</v>
       </c>
       <c r="R3">
-        <v>103.82882679816</v>
+        <v>67.185360367713</v>
       </c>
       <c r="S3">
-        <v>0.007188514954226451</v>
+        <v>0.001398037967035497</v>
       </c>
       <c r="T3">
-        <v>0.004834086347396421</v>
+        <v>0.0009593348918502195</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>392.0055033333333</v>
+        <v>19.4786585</v>
       </c>
       <c r="H4">
-        <v>1176.01651</v>
+        <v>38.957317</v>
       </c>
       <c r="I4">
-        <v>0.5127309595519816</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J4">
-        <v>0.5171970317736688</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N4">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O4">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P4">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q4">
-        <v>280.9499522334967</v>
+        <v>108.9045758350865</v>
       </c>
       <c r="R4">
-        <v>2528.54957010147</v>
+        <v>653.4274550105191</v>
       </c>
       <c r="S4">
-        <v>0.116708220364221</v>
+        <v>0.01359695603042548</v>
       </c>
       <c r="T4">
-        <v>0.1177247912018131</v>
+        <v>0.009330243277011967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,22 +723,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>392.0055033333333</v>
+        <v>19.4786585</v>
       </c>
       <c r="H5">
-        <v>1176.01651</v>
+        <v>38.957317</v>
       </c>
       <c r="I5">
-        <v>0.5127309595519816</v>
+        <v>0.01644248566400343</v>
       </c>
       <c r="J5">
-        <v>0.5171970317736688</v>
+        <v>0.01108359890151296</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N5">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O5">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P5">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q5">
-        <v>953.3396131905155</v>
+        <v>4.616617372426501</v>
       </c>
       <c r="R5">
-        <v>8580.056518714639</v>
+        <v>27.699704234559</v>
       </c>
       <c r="S5">
-        <v>0.3960227391877606</v>
+        <v>0.0005763939939239716</v>
       </c>
       <c r="T5">
-        <v>0.3994722405718557</v>
+        <v>0.0003955220694018031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,61 +791,61 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>225.9980216666667</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H6">
-        <v>677.994065</v>
+        <v>1176.01651</v>
       </c>
       <c r="I6">
-        <v>0.2955983564533448</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J6">
-        <v>0.2981731251189355</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N6">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O6">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P6">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q6">
-        <v>161.9725561304784</v>
+        <v>140.4120592334633</v>
       </c>
       <c r="R6">
-        <v>1457.753005174305</v>
+        <v>842.4723554007799</v>
       </c>
       <c r="S6">
-        <v>0.06728432812873855</v>
+        <v>0.01753072890555079</v>
       </c>
       <c r="T6">
-        <v>0.06787039897781157</v>
+        <v>0.0120296017098333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>225.9980216666667</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H7">
-        <v>677.994065</v>
+        <v>1176.01651</v>
       </c>
       <c r="I7">
-        <v>0.2955983564533448</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J7">
-        <v>0.2981731251189355</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N7">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O7">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P7">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q7">
-        <v>549.6169434496844</v>
+        <v>225.34945966271</v>
       </c>
       <c r="R7">
-        <v>4946.552491047159</v>
+        <v>2028.14513696439</v>
       </c>
       <c r="S7">
-        <v>0.2283140283246063</v>
+        <v>0.02813533472784381</v>
       </c>
       <c r="T7">
-        <v>0.2303027261411239</v>
+        <v>0.02895973743353328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.69026</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H8">
-        <v>25.38052</v>
+        <v>1176.01651</v>
       </c>
       <c r="I8">
-        <v>0.01659846387725661</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J8">
-        <v>0.01116202833655136</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N8">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O8">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P8">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q8">
-        <v>9.09509665174</v>
+        <v>2191.690616966063</v>
       </c>
       <c r="R8">
-        <v>54.57057991044</v>
+        <v>19725.21555269457</v>
       </c>
       <c r="S8">
-        <v>0.003778155275794364</v>
+        <v>0.2736369957154977</v>
       </c>
       <c r="T8">
-        <v>0.002540709583739979</v>
+        <v>0.2816549234148382</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.69026</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H9">
-        <v>25.38052</v>
+        <v>1176.01651</v>
       </c>
       <c r="I9">
-        <v>0.01659846387725661</v>
+        <v>0.3309029145291901</v>
       </c>
       <c r="J9">
-        <v>0.01116202833655136</v>
+        <v>0.3345840089140918</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N9">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O9">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P9">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q9">
-        <v>30.86213702821333</v>
+        <v>92.90883233953001</v>
       </c>
       <c r="R9">
-        <v>185.17282216928</v>
+        <v>836.1794910557701</v>
       </c>
       <c r="S9">
-        <v>0.01282030860146224</v>
+        <v>0.0115998551802978</v>
       </c>
       <c r="T9">
-        <v>0.008621318752811382</v>
+        <v>0.01193974635588704</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.311581666666666</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H10">
-        <v>21.934745</v>
+        <v>1125.305603</v>
       </c>
       <c r="I10">
-        <v>0.009563320545030469</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J10">
-        <v>0.009646620528067522</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N10">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O10">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P10">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q10">
-        <v>5.240203268918334</v>
+        <v>134.3573628776557</v>
       </c>
       <c r="R10">
-        <v>47.161829420265</v>
+        <v>806.144177265934</v>
       </c>
       <c r="S10">
-        <v>0.002176810471047719</v>
+        <v>0.01677478784893111</v>
       </c>
       <c r="T10">
-        <v>0.002195771278066509</v>
+        <v>0.01151087428690419</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.311581666666666</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H11">
-        <v>21.934745</v>
+        <v>1125.305603</v>
       </c>
       <c r="I11">
-        <v>0.009563320545030469</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J11">
-        <v>0.009646620528067522</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N11">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O11">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P11">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q11">
-        <v>17.78143515496444</v>
+        <v>215.632184952463</v>
       </c>
       <c r="R11">
-        <v>160.03291639468</v>
+        <v>1940.689664572167</v>
       </c>
       <c r="S11">
-        <v>0.00738651007398275</v>
+        <v>0.02692211337366609</v>
       </c>
       <c r="T11">
-        <v>0.007450849250001013</v>
+        <v>0.02771096708103515</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>119.4232813333333</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H12">
-        <v>358.269844</v>
+        <v>1125.305603</v>
       </c>
       <c r="I12">
-        <v>0.1562019234684543</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J12">
-        <v>0.1575624987533681</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N12">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O12">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P12">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q12">
-        <v>85.59054630831866</v>
+        <v>2097.182913966436</v>
       </c>
       <c r="R12">
-        <v>770.314916774868</v>
+        <v>18874.64622569792</v>
       </c>
       <c r="S12">
-        <v>0.03555480348095373</v>
+        <v>0.2618375183072358</v>
       </c>
       <c r="T12">
-        <v>0.03586449868701772</v>
+        <v>0.2695097056343651</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>119.4232813333333</v>
+        <v>375.1018676666667</v>
       </c>
       <c r="H13">
-        <v>358.269844</v>
+        <v>1125.305603</v>
       </c>
       <c r="I13">
-        <v>0.1562019234684543</v>
+        <v>0.3166340783504202</v>
       </c>
       <c r="J13">
-        <v>0.1575624987533681</v>
+        <v>0.3201564405802684</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,772 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N13">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O13">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P13">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q13">
-        <v>290.4320063472462</v>
+        <v>88.90251855380902</v>
       </c>
       <c r="R13">
-        <v>2613.888057125216</v>
+        <v>800.1226669842811</v>
       </c>
       <c r="S13">
-        <v>0.1206471199875006</v>
+        <v>0.01109965882058721</v>
       </c>
       <c r="T13">
-        <v>0.1216980000663504</v>
+        <v>0.0114248935779639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>19.6220475</v>
+      </c>
+      <c r="H14">
+        <v>39.244095</v>
+      </c>
+      <c r="I14">
+        <v>0.01656352436781744</v>
+      </c>
+      <c r="J14">
+        <v>0.01116518902553968</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.358189</v>
+      </c>
+      <c r="N14">
+        <v>0.716378</v>
+      </c>
+      <c r="O14">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P14">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q14">
+        <v>7.0284015719775</v>
+      </c>
+      <c r="R14">
+        <v>28.11360628791</v>
+      </c>
+      <c r="S14">
+        <v>0.0008775101175093383</v>
+      </c>
+      <c r="T14">
+        <v>0.0004014321468266297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>19.6220475</v>
+      </c>
+      <c r="H15">
+        <v>39.244095</v>
+      </c>
+      <c r="I15">
+        <v>0.01656352436781744</v>
+      </c>
+      <c r="J15">
+        <v>0.01116518902553968</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.574863</v>
+      </c>
+      <c r="N15">
+        <v>1.724589</v>
+      </c>
+      <c r="O15">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P15">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q15">
+        <v>11.2799890919925</v>
+      </c>
+      <c r="R15">
+        <v>67.679934551955</v>
+      </c>
+      <c r="S15">
+        <v>0.001408329397836815</v>
+      </c>
+      <c r="T15">
+        <v>0.0009663968807858287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>19.6220475</v>
+      </c>
+      <c r="H16">
+        <v>39.244095</v>
+      </c>
+      <c r="I16">
+        <v>0.01656352436781744</v>
+      </c>
+      <c r="J16">
+        <v>0.01116518902553968</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.590969</v>
+      </c>
+      <c r="N16">
+        <v>16.772907</v>
+      </c>
+      <c r="O16">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P16">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q16">
+        <v>109.7062592890275</v>
+      </c>
+      <c r="R16">
+        <v>658.237555734165</v>
+      </c>
+      <c r="S16">
+        <v>0.01369704782721152</v>
+      </c>
+      <c r="T16">
+        <v>0.009398926356662831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>19.6220475</v>
+      </c>
+      <c r="H17">
+        <v>39.244095</v>
+      </c>
+      <c r="I17">
+        <v>0.01656352436781744</v>
+      </c>
+      <c r="J17">
+        <v>0.01116518902553968</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.237009</v>
+      </c>
+      <c r="N17">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P17">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q17">
+        <v>4.6506018559275</v>
+      </c>
+      <c r="R17">
+        <v>27.903611135565</v>
+      </c>
+      <c r="S17">
+        <v>0.0005806370252597673</v>
+      </c>
+      <c r="T17">
+        <v>0.0003984336412643857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>133.4172743333333</v>
+      </c>
+      <c r="H18">
+        <v>400.2518229999999</v>
+      </c>
+      <c r="I18">
+        <v>0.1126212886044614</v>
+      </c>
+      <c r="J18">
+        <v>0.1138741321875775</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.358189</v>
+      </c>
+      <c r="N18">
+        <v>0.716378</v>
+      </c>
+      <c r="O18">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P18">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q18">
+        <v>47.78860007618233</v>
+      </c>
+      <c r="R18">
+        <v>286.7316004570939</v>
+      </c>
+      <c r="S18">
+        <v>0.00596650314285596</v>
+      </c>
+      <c r="T18">
+        <v>0.004094219743840753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>133.4172743333333</v>
+      </c>
+      <c r="H19">
+        <v>400.2518229999999</v>
+      </c>
+      <c r="I19">
+        <v>0.1126212886044614</v>
+      </c>
+      <c r="J19">
+        <v>0.1138741321875775</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.574863</v>
+      </c>
+      <c r="N19">
+        <v>1.724589</v>
+      </c>
+      <c r="O19">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P19">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q19">
+        <v>76.696654575083</v>
+      </c>
+      <c r="R19">
+        <v>690.2698911757469</v>
+      </c>
+      <c r="S19">
+        <v>0.009575732074998414</v>
+      </c>
+      <c r="T19">
+        <v>0.009856313753089261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>133.4172743333333</v>
+      </c>
+      <c r="H20">
+        <v>400.2518229999999</v>
+      </c>
+      <c r="I20">
+        <v>0.1126212886044614</v>
+      </c>
+      <c r="J20">
+        <v>0.1138741321875775</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.590969</v>
+      </c>
+      <c r="N20">
+        <v>16.772907</v>
+      </c>
+      <c r="O20">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P20">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q20">
+        <v>745.9318448621623</v>
+      </c>
+      <c r="R20">
+        <v>6713.38660375946</v>
+      </c>
+      <c r="S20">
+        <v>0.09313109590219201</v>
+      </c>
+      <c r="T20">
+        <v>0.09585996080421896</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>133.4172743333333</v>
+      </c>
+      <c r="H21">
+        <v>400.2518229999999</v>
+      </c>
+      <c r="I21">
+        <v>0.1126212886044614</v>
+      </c>
+      <c r="J21">
+        <v>0.1138741321875775</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.237009</v>
+      </c>
+      <c r="N21">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P21">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q21">
+        <v>31.621094772469</v>
+      </c>
+      <c r="R21">
+        <v>284.589852952221</v>
+      </c>
+      <c r="S21">
+        <v>0.003947957484415067</v>
+      </c>
+      <c r="T21">
+        <v>0.004063637886428477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>245.0287756666667</v>
+      </c>
+      <c r="H22">
+        <v>735.086327</v>
+      </c>
+      <c r="I22">
+        <v>0.2068357084841073</v>
+      </c>
+      <c r="J22">
+        <v>0.2091366303910096</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.358189</v>
+      </c>
+      <c r="N22">
+        <v>0.716378</v>
+      </c>
+      <c r="O22">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P22">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q22">
+        <v>87.76661212726766</v>
+      </c>
+      <c r="R22">
+        <v>526.599672763606</v>
+      </c>
+      <c r="S22">
+        <v>0.01095783861130832</v>
+      </c>
+      <c r="T22">
+        <v>0.007519278565361538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>245.0287756666667</v>
+      </c>
+      <c r="H23">
+        <v>735.086327</v>
+      </c>
+      <c r="I23">
+        <v>0.2068357084841073</v>
+      </c>
+      <c r="J23">
+        <v>0.2091366303910096</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.574863</v>
+      </c>
+      <c r="N23">
+        <v>1.724589</v>
+      </c>
+      <c r="O23">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P23">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q23">
+        <v>140.857977066067</v>
+      </c>
+      <c r="R23">
+        <v>1267.721793594603</v>
+      </c>
+      <c r="S23">
+        <v>0.01758640264668244</v>
+      </c>
+      <c r="T23">
+        <v>0.01810170762049964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>245.0287756666667</v>
+      </c>
+      <c r="H24">
+        <v>735.086327</v>
+      </c>
+      <c r="I24">
+        <v>0.2068357084841073</v>
+      </c>
+      <c r="J24">
+        <v>0.2091366303910096</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.590969</v>
+      </c>
+      <c r="N24">
+        <v>16.772907</v>
+      </c>
+      <c r="O24">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P24">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q24">
+        <v>1369.948288860288</v>
+      </c>
+      <c r="R24">
+        <v>12329.53459974259</v>
+      </c>
+      <c r="S24">
+        <v>0.1710408080170745</v>
+      </c>
+      <c r="T24">
+        <v>0.1760525310435308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>245.0287756666667</v>
+      </c>
+      <c r="H25">
+        <v>735.086327</v>
+      </c>
+      <c r="I25">
+        <v>0.2068357084841073</v>
+      </c>
+      <c r="J25">
+        <v>0.2091366303910096</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.237009</v>
+      </c>
+      <c r="N25">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P25">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q25">
+        <v>58.07402509198101</v>
+      </c>
+      <c r="R25">
+        <v>522.6662258278291</v>
+      </c>
+      <c r="S25">
+        <v>0.007250659209042083</v>
+      </c>
+      <c r="T25">
+        <v>0.007463113161617635</v>
       </c>
     </row>
   </sheetData>
